--- a/서류/의류생산 2팀-유즈케이스 정의서.xlsx
+++ b/서류/의류생산 2팀-유즈케이스 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\human-08\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\human-01\Desktop\git\Human-2Team-Nike\서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="176">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,11 +746,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상중하</t>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자, 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,33 +1301,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1318,6 +1331,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1327,6 +1388,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,119 +1415,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1770,13 +1810,13 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
@@ -1791,229 +1831,259 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="C4" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="74" t="s">
+      <c r="B5" s="69" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E19" s="75"/>
@@ -2043,22 +2113,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2066,392 +2136,359 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>44812</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="21" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="21" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="21" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="45"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="45"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="21" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="45"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="33" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="41"/>
+      <c r="D38" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="28" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
@@ -2468,542 +2505,10 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-    </row>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>44508</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-    </row>
-    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="62"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="62"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="62"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="56"/>
-    </row>
-    <row r="25" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-    </row>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>45062</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-    </row>
-    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-    </row>
-    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-    </row>
-    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="66"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="66"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="65"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="66"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-    </row>
-    <row r="28" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-    </row>
-    <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
-    </row>
-    <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="B24:B26"/>
@@ -3036,6 +2541,571 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44508</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="50"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="51"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="52"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="50"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="51"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="52"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="50"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="51"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="52"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45062</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="26"/>
+      <c r="C11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="58"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="58"/>
+      <c r="C13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="58"/>
+      <c r="C14" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="58"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="58"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="58"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="59"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="59"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="59"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3057,22 +3127,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3080,266 +3150,263 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>45062</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="21" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="21" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="66"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="66"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="63"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="65"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="65"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="66"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="63"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
     </row>
     <row r="30" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="2:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:D11"/>
@@ -3355,12 +3422,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3385,22 +3455,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3408,296 +3478,322 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>45062</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="71" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="21" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="21" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="21"/>
-      <c r="I19" s="24"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="12"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="21" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="21" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="66"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="65"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="65"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="63"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="20" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="65"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="66"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="63"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="2:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -3708,32 +3804,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B11:B23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3758,311 +3828,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>45064</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="27" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="21"/>
-      <c r="I19" s="24"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="12"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="66"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="65"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="65"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="66"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="20" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="65"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="66"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B11:B23"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -4077,12 +4137,22 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
